--- a/Code/Results/Cases/Case_5_116/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_116/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.07231028519567</v>
+        <v>1.543145160119593</v>
       </c>
       <c r="C2">
-        <v>1.194749013064893</v>
+        <v>0.6045642687507211</v>
       </c>
       <c r="D2">
-        <v>0.01386085739518705</v>
+        <v>0.05575800697532962</v>
       </c>
       <c r="E2">
-        <v>0.03729549267191068</v>
+        <v>0.09227724228550827</v>
       </c>
       <c r="F2">
-        <v>2.142235885727118</v>
+        <v>2.705411538345487</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8835924950720511</v>
+        <v>1.262895537521501</v>
       </c>
       <c r="J2">
-        <v>0.0723276657916081</v>
+        <v>0.1479057805075676</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8309436665952887</v>
+        <v>0.5724660458667472</v>
       </c>
       <c r="N2">
-        <v>0.8846143727883771</v>
+        <v>1.799457959988544</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.660089617366225</v>
+        <v>1.44065358144411</v>
       </c>
       <c r="C3">
-        <v>1.034353258451063</v>
+        <v>0.5657244472716911</v>
       </c>
       <c r="D3">
-        <v>0.01299990138829621</v>
+        <v>0.05560136928006898</v>
       </c>
       <c r="E3">
-        <v>0.03581680997873349</v>
+        <v>0.09237417700506612</v>
       </c>
       <c r="F3">
-        <v>1.967909404029413</v>
+        <v>2.681179437664312</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8310863904842876</v>
+        <v>1.258904852297803</v>
       </c>
       <c r="J3">
-        <v>0.06958888804863506</v>
+        <v>0.1481471940153085</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7248785813616507</v>
+        <v>0.5481573466469314</v>
       </c>
       <c r="N3">
-        <v>0.9364346063927087</v>
+        <v>1.819625327823779</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.410693747274991</v>
+        <v>1.378553937136871</v>
       </c>
       <c r="C4">
-        <v>0.9376654355629341</v>
+        <v>0.5422353028170619</v>
       </c>
       <c r="D4">
-        <v>0.01248115411590156</v>
+        <v>0.0555090124632116</v>
       </c>
       <c r="E4">
-        <v>0.0349529644143054</v>
+        <v>0.09246258146404607</v>
       </c>
       <c r="F4">
-        <v>1.865730764069184</v>
+        <v>2.667926424497182</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8010665120326621</v>
+        <v>1.257205323389073</v>
       </c>
       <c r="J4">
-        <v>0.06803911908377103</v>
+        <v>0.148358173165196</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6608910025499952</v>
+        <v>0.5335595744811243</v>
       </c>
       <c r="N4">
-        <v>0.9699161336161097</v>
+        <v>1.832670823019765</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.309867722157833</v>
+        <v>1.353455744877579</v>
       </c>
       <c r="C5">
-        <v>0.8986557099935908</v>
+        <v>0.5327527696101981</v>
       </c>
       <c r="D5">
-        <v>0.01227184093751177</v>
+        <v>0.05547234174437143</v>
       </c>
       <c r="E5">
-        <v>0.03461138926036966</v>
+        <v>0.09250588172473684</v>
       </c>
       <c r="F5">
-        <v>1.82520326612692</v>
+        <v>2.662933025250567</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7893445869595439</v>
+        <v>1.256700839107523</v>
       </c>
       <c r="J5">
-        <v>0.06743846705378687</v>
+        <v>0.1484599138985701</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6350662314057871</v>
+        <v>0.5276930664225716</v>
       </c>
       <c r="N5">
-        <v>0.9839596412383855</v>
+        <v>1.838153240818659</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.293170707921433</v>
+        <v>1.349300739893238</v>
       </c>
       <c r="C6">
-        <v>0.8922001472471095</v>
+        <v>0.5311835864494867</v>
       </c>
       <c r="D6">
-        <v>0.0122371993771857</v>
+        <v>0.05546631106277644</v>
       </c>
       <c r="E6">
-        <v>0.03455528451545753</v>
+        <v>0.09251351140556352</v>
       </c>
       <c r="F6">
-        <v>1.818537754472146</v>
+        <v>2.662128433457397</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7874277690121332</v>
+        <v>1.25662840959648</v>
       </c>
       <c r="J6">
-        <v>0.06734053228980841</v>
+        <v>0.1484777596385136</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6307922156038401</v>
+        <v>0.5267238951603304</v>
       </c>
       <c r="N6">
-        <v>0.9863151641245125</v>
+        <v>1.839073624241195</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.409330874912825</v>
+        <v>1.378214613528598</v>
       </c>
       <c r="C7">
-        <v>0.9371378280933698</v>
+        <v>0.5421070566613366</v>
       </c>
       <c r="D7">
-        <v>0.0124783233212522</v>
+        <v>0.05550851399297585</v>
       </c>
       <c r="E7">
-        <v>0.03494831630436934</v>
+        <v>0.092463135956244</v>
       </c>
       <c r="F7">
-        <v>1.86517983667315</v>
+        <v>2.667857434524834</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8009064141196092</v>
+        <v>1.25719775911486</v>
       </c>
       <c r="J7">
-        <v>0.06803089626041725</v>
+        <v>0.1483594814624141</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6605417500018405</v>
+        <v>0.5334801241829936</v>
       </c>
       <c r="N7">
-        <v>0.9701039353767804</v>
+        <v>1.832744088081434</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.929326206128223</v>
+        <v>1.507633062785544</v>
       </c>
       <c r="C8">
-        <v>1.139033887632593</v>
+        <v>0.5910974175980073</v>
       </c>
       <c r="D8">
-        <v>0.01356168910457711</v>
+        <v>0.05570320845519738</v>
       </c>
       <c r="E8">
-        <v>0.03677609763196976</v>
+        <v>0.09230467650262497</v>
       </c>
       <c r="F8">
-        <v>2.081050171491569</v>
+        <v>2.696718020902466</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8649985266740501</v>
+        <v>1.261363300069327</v>
       </c>
       <c r="J8">
-        <v>0.07135454677526809</v>
+        <v>0.1479759872093638</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7941143376956887</v>
+        <v>0.5640162006656695</v>
       </c>
       <c r="N8">
-        <v>0.9021248457796602</v>
+        <v>1.806273922297898</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.984891383396302</v>
+        <v>1.768070890135675</v>
       </c>
       <c r="C9">
-        <v>1.552229752372455</v>
+        <v>0.6900508364707321</v>
       </c>
       <c r="D9">
-        <v>0.0157857995923063</v>
+        <v>0.05611512934375007</v>
       </c>
       <c r="E9">
-        <v>0.04074176179577194</v>
+        <v>0.09222271856964426</v>
       </c>
       <c r="F9">
-        <v>2.548454252469142</v>
+        <v>2.766284719212024</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.010618395171477</v>
+        <v>1.275522736755079</v>
       </c>
       <c r="J9">
-        <v>0.07903139995607944</v>
+        <v>0.1477226294621801</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.066835721711975</v>
+        <v>0.6265138492158826</v>
       </c>
       <c r="N9">
-        <v>0.7829562277254212</v>
+        <v>1.759639107451669</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.792356334040107</v>
+        <v>1.963570924416729</v>
       </c>
       <c r="C10">
-        <v>1.871104306710663</v>
+        <v>0.7645703173390643</v>
       </c>
       <c r="D10">
-        <v>0.01751551009860819</v>
+        <v>0.05643595357435061</v>
       </c>
       <c r="E10">
-        <v>0.04393738656257717</v>
+        <v>0.09230151436985956</v>
       </c>
       <c r="F10">
-        <v>2.927389678529835</v>
+        <v>2.825413979438792</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.133398651724619</v>
+        <v>1.289627965807</v>
       </c>
       <c r="J10">
-        <v>0.08555461940596132</v>
+        <v>0.1478417792980053</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.276549944048995</v>
+        <v>0.674052650673346</v>
       </c>
       <c r="N10">
-        <v>0.705484601410113</v>
+        <v>1.728611143821006</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.169233825787671</v>
+        <v>2.05343551081819</v>
       </c>
       <c r="C11">
-        <v>2.02072876233666</v>
+        <v>0.7988797615579983</v>
       </c>
       <c r="D11">
-        <v>0.01833277793846655</v>
+        <v>0.05658582421222214</v>
       </c>
       <c r="E11">
-        <v>0.04546512829956662</v>
+        <v>0.09236745904887833</v>
       </c>
       <c r="F11">
-        <v>3.109732262487086</v>
+        <v>2.854079502260106</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.193625217985428</v>
+        <v>1.296859878005165</v>
       </c>
       <c r="J11">
-        <v>0.08875937826002911</v>
+        <v>0.1479625768201345</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.374699525417412</v>
+        <v>0.6960376782652844</v>
       </c>
       <c r="N11">
-        <v>0.6728101840165834</v>
+        <v>1.715202477115533</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.313572526972166</v>
+        <v>2.087600248395177</v>
       </c>
       <c r="C12">
-        <v>2.078164204573284</v>
+        <v>0.8119317994283506</v>
       </c>
       <c r="D12">
-        <v>0.01864760462949278</v>
+        <v>0.05664313792879483</v>
       </c>
       <c r="E12">
-        <v>0.04605550831976046</v>
+        <v>0.0923967506713268</v>
       </c>
       <c r="F12">
-        <v>3.180429775907811</v>
+        <v>2.865190407876781</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.217151400885697</v>
+        <v>1.299716532482833</v>
       </c>
       <c r="J12">
-        <v>0.09001144047768861</v>
+        <v>0.1480179187247472</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.412330488220888</v>
+        <v>0.7044149169224596</v>
       </c>
       <c r="N12">
-        <v>0.6608437513103524</v>
+        <v>1.710226916638618</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.282410076142526</v>
+        <v>2.080236239506633</v>
       </c>
       <c r="C13">
-        <v>2.065757868075309</v>
+        <v>0.8091181369488822</v>
       </c>
       <c r="D13">
-        <v>0.01857954602198397</v>
+        <v>0.05663076949965173</v>
       </c>
       <c r="E13">
-        <v>0.04592781107606037</v>
+        <v>0.09239025020522718</v>
       </c>
       <c r="F13">
-        <v>3.165126739966666</v>
+        <v>2.862786066338913</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.212051028268931</v>
+        <v>1.29909603545957</v>
       </c>
       <c r="J13">
-        <v>0.08973999888524986</v>
+        <v>0.1480055725994944</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.404204167087912</v>
+        <v>0.702608411625917</v>
       </c>
       <c r="N13">
-        <v>0.6634021987112106</v>
+        <v>1.711293948037373</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.181074575935327</v>
+        <v>2.056243552686396</v>
       </c>
       <c r="C14">
-        <v>2.025437718146236</v>
+        <v>0.7999523574407021</v>
       </c>
       <c r="D14">
-        <v>0.0183585656187919</v>
+        <v>0.05659052822307942</v>
       </c>
       <c r="E14">
-        <v>0.04551345407987029</v>
+        <v>0.09236978236105031</v>
       </c>
       <c r="F14">
-        <v>3.115514213996477</v>
+        <v>2.854988464500821</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.195545743084693</v>
+        <v>1.297092525230795</v>
       </c>
       <c r="J14">
-        <v>0.08886158771061048</v>
+        <v>0.1479669373343455</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.377785725883967</v>
+        <v>0.6967258350692163</v>
       </c>
       <c r="N14">
-        <v>0.6718173154958009</v>
+        <v>1.714791087578988</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.119223031094577</v>
+        <v>2.041564950718737</v>
       </c>
       <c r="C15">
-        <v>2.00084532888792</v>
+        <v>0.7943458645094097</v>
       </c>
       <c r="D15">
-        <v>0.01822393657698385</v>
+        <v>0.05656595223130445</v>
       </c>
       <c r="E15">
-        <v>0.04526123125836712</v>
+        <v>0.09235780753231815</v>
       </c>
       <c r="F15">
-        <v>3.085346671781679</v>
+        <v>2.850245585762849</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.185532410216609</v>
+        <v>1.295880720710926</v>
       </c>
       <c r="J15">
-        <v>0.08832868738239341</v>
+        <v>0.1479445227964931</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.361666264066073</v>
+        <v>0.6931293664170539</v>
       </c>
       <c r="N15">
-        <v>0.677025975179852</v>
+        <v>1.716946485492159</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.767939365495181</v>
+        <v>1.957716886246089</v>
       </c>
       <c r="C16">
-        <v>1.86142771467064</v>
+        <v>0.7623364372834089</v>
       </c>
       <c r="D16">
-        <v>0.01746279100847303</v>
+        <v>0.05642623786443757</v>
       </c>
       <c r="E16">
-        <v>0.04383913487776603</v>
+        <v>0.09229780968311552</v>
       </c>
       <c r="F16">
-        <v>2.915691427692536</v>
+        <v>2.823576332608809</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.129558194329746</v>
+        <v>1.289171821980233</v>
       </c>
       <c r="J16">
-        <v>0.08535031643441471</v>
+        <v>0.1478352268465315</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.270196613066489</v>
+        <v>0.6726231351886724</v>
       </c>
       <c r="N16">
-        <v>0.707674705639036</v>
+        <v>1.729501680687214</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.555053165388358</v>
+        <v>1.906517977226486</v>
       </c>
       <c r="C17">
-        <v>1.777149012840027</v>
+        <v>0.7428053174048728</v>
       </c>
       <c r="D17">
-        <v>0.01700428272359567</v>
+        <v>0.05634153052925939</v>
       </c>
       <c r="E17">
-        <v>0.04298650144010097</v>
+        <v>0.0922687061254841</v>
       </c>
       <c r="F17">
-        <v>2.81430979708361</v>
+        <v>2.807669504100289</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.09640081249826</v>
+        <v>1.285265558106985</v>
       </c>
       <c r="J17">
-        <v>0.08358689437365285</v>
+        <v>0.1477852495938805</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.214833089998308</v>
+        <v>0.6601354893806928</v>
       </c>
       <c r="N17">
-        <v>0.7271594468456257</v>
+        <v>1.737385071684017</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.433489543827704</v>
+        <v>1.877157244714169</v>
       </c>
       <c r="C18">
-        <v>1.72909595604591</v>
+        <v>0.7316100901894629</v>
       </c>
       <c r="D18">
-        <v>0.01674335637841828</v>
+        <v>0.0562931788501011</v>
       </c>
       <c r="E18">
-        <v>0.04250297684885318</v>
+        <v>0.09225480018499788</v>
       </c>
       <c r="F18">
-        <v>2.756921036909119</v>
+        <v>2.798686559564317</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.077735089510441</v>
+        <v>1.283095474487169</v>
       </c>
       <c r="J18">
-        <v>0.08259466521575121</v>
+        <v>0.1477627709344986</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.183243657328561</v>
+        <v>0.6529867342390503</v>
       </c>
       <c r="N18">
-        <v>0.7386057316211705</v>
+        <v>1.741985823284985</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.392474768480895</v>
+        <v>1.86723120349842</v>
       </c>
       <c r="C19">
-        <v>1.712895093021814</v>
+        <v>0.727826176107385</v>
       </c>
       <c r="D19">
-        <v>0.01665546438650978</v>
+        <v>0.05627687142048998</v>
       </c>
       <c r="E19">
-        <v>0.04234041224925633</v>
+        <v>0.09225057882057719</v>
       </c>
       <c r="F19">
-        <v>2.737642649769896</v>
+        <v>2.795673588156632</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.071482271967596</v>
+        <v>1.282373868761525</v>
       </c>
       <c r="J19">
-        <v>0.08226237575966167</v>
+        <v>0.1477562357353293</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.172589736443697</v>
+        <v>0.6505720860364619</v>
       </c>
       <c r="N19">
-        <v>0.7425212670362384</v>
+        <v>1.743554954474554</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.577622189954866</v>
+        <v>1.911959121728103</v>
       </c>
       <c r="C20">
-        <v>1.786076155436604</v>
+        <v>0.7448804421614454</v>
       </c>
       <c r="D20">
-        <v>0.01705279588063213</v>
+        <v>0.05635050952968079</v>
       </c>
       <c r="E20">
-        <v>0.04307654459940835</v>
+        <v>0.09227151103922537</v>
       </c>
       <c r="F20">
-        <v>2.825005018360173</v>
+        <v>2.809345595062581</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.099887882419125</v>
+        <v>1.285673442793993</v>
       </c>
       <c r="J20">
-        <v>0.08377230232062516</v>
+        <v>0.1477899209960398</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.22069985543888</v>
+        <v>0.6614613193624166</v>
       </c>
       <c r="N20">
-        <v>0.7250602540471291</v>
+        <v>1.736538992232262</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.210793058276693</v>
+        <v>2.063287114089917</v>
       </c>
       <c r="C21">
-        <v>2.037258632733028</v>
+        <v>0.8026429396424533</v>
       </c>
       <c r="D21">
-        <v>0.01842331925821838</v>
+        <v>0.05660233286415384</v>
       </c>
       <c r="E21">
-        <v>0.04563482853147072</v>
+        <v>0.0923756770916011</v>
       </c>
       <c r="F21">
-        <v>3.130040014887442</v>
+        <v>2.857271850155485</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.200373427743898</v>
+        <v>1.297677793196911</v>
       </c>
       <c r="J21">
-        <v>0.08911851609488508</v>
+        <v>0.1479780247679514</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.385532281927411</v>
+        <v>0.6984522770304267</v>
       </c>
       <c r="N21">
-        <v>0.6693342310705006</v>
+        <v>1.713761120573537</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.634210140980258</v>
+        <v>2.162975963052133</v>
       </c>
       <c r="C22">
-        <v>2.206011391627726</v>
+        <v>0.8407429971727538</v>
       </c>
       <c r="D22">
-        <v>0.0193507722434596</v>
+        <v>0.05677018220933583</v>
       </c>
       <c r="E22">
-        <v>0.04737660959056811</v>
+        <v>0.0924689309795923</v>
       </c>
       <c r="F22">
-        <v>3.339128081099886</v>
+        <v>2.890086810185664</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.270292949307176</v>
+        <v>1.306212023885024</v>
       </c>
       <c r="J22">
-        <v>0.09283938639553213</v>
+        <v>0.1481569196576089</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.496002234239072</v>
+        <v>0.722931168545685</v>
       </c>
       <c r="N22">
-        <v>0.6353056636876033</v>
+        <v>1.699469285952489</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.407254380626057</v>
+        <v>2.109697727189314</v>
       </c>
       <c r="C23">
-        <v>2.115480953180736</v>
+        <v>0.8203760790846673</v>
       </c>
       <c r="D23">
-        <v>0.01885250163677199</v>
+        <v>0.05668029992549783</v>
       </c>
       <c r="E23">
-        <v>0.04644015940399981</v>
+        <v>0.09241685883084649</v>
       </c>
       <c r="F23">
-        <v>3.226564337298669</v>
+        <v>2.872435708274963</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.232553681717704</v>
+        <v>1.301593849354006</v>
       </c>
       <c r="J23">
-        <v>0.09083113589090175</v>
+        <v>0.1480563124140701</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.436766280422248</v>
+        <v>0.7098384803821034</v>
       </c>
       <c r="N23">
-        <v>0.6532347543869577</v>
+        <v>1.707042522424743</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.567416174877678</v>
+        <v>1.909498949260865</v>
       </c>
       <c r="C24">
-        <v>1.782038957485554</v>
+        <v>0.743942174057338</v>
       </c>
       <c r="D24">
-        <v>0.0170308548175111</v>
+        <v>0.05634644903996744</v>
       </c>
       <c r="E24">
-        <v>0.04303581541422119</v>
+        <v>0.092270234134471</v>
       </c>
       <c r="F24">
-        <v>2.820166931131212</v>
+        <v>2.808587329555849</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.098310148566952</v>
+        <v>1.285488802465281</v>
       </c>
       <c r="J24">
-        <v>0.08368841247552439</v>
+        <v>0.1477877895770376</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.218046748930973</v>
+        <v>0.6608618164668059</v>
       </c>
       <c r="N24">
-        <v>0.7260085410994606</v>
+        <v>1.736921291472257</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.694523153900207</v>
+        <v>1.696893226698592</v>
       </c>
       <c r="C25">
-        <v>1.43814141888754</v>
+        <v>0.6629664119413974</v>
       </c>
       <c r="D25">
-        <v>0.01517017683295308</v>
+        <v>0.0560004882983538</v>
       </c>
       <c r="E25">
-        <v>0.03962333062156276</v>
+        <v>0.0922204464136307</v>
       </c>
       <c r="F25">
-        <v>2.416455938312495</v>
+        <v>2.74606504783317</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9687396773922998</v>
+        <v>1.271045733094724</v>
       </c>
       <c r="J25">
-        <v>0.07681350442353718</v>
+        <v>0.1477376524003198</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9916357801926239</v>
+        <v>0.6093237394562863</v>
       </c>
       <c r="N25">
-        <v>0.8135405307367876</v>
+        <v>1.771688500391356</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_116/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_116/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.543145160119593</v>
+        <v>3.07231028519567</v>
       </c>
       <c r="C2">
-        <v>0.6045642687507211</v>
+        <v>1.194749013064836</v>
       </c>
       <c r="D2">
-        <v>0.05575800697532962</v>
+        <v>0.01386085739518172</v>
       </c>
       <c r="E2">
-        <v>0.09227724228550827</v>
+        <v>0.03729549267195154</v>
       </c>
       <c r="F2">
-        <v>2.705411538345487</v>
+        <v>2.142235885727132</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.262895537521501</v>
+        <v>0.8835924950720582</v>
       </c>
       <c r="J2">
-        <v>0.1479057805075676</v>
+        <v>0.07232766579166139</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5724660458667472</v>
+        <v>0.8309436665952745</v>
       </c>
       <c r="N2">
-        <v>1.799457959988544</v>
+        <v>0.8846143727883771</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.44065358144411</v>
+        <v>2.660089617366225</v>
       </c>
       <c r="C3">
-        <v>0.5657244472716911</v>
+        <v>1.034353258450835</v>
       </c>
       <c r="D3">
-        <v>0.05560136928006898</v>
+        <v>0.01299990138838503</v>
       </c>
       <c r="E3">
-        <v>0.09237417700506612</v>
+        <v>0.03581680997870507</v>
       </c>
       <c r="F3">
-        <v>2.681179437664312</v>
+        <v>1.967909404029442</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.258904852297803</v>
+        <v>0.8310863904842805</v>
       </c>
       <c r="J3">
-        <v>0.1481471940153085</v>
+        <v>0.06958888804867058</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5481573466469314</v>
+        <v>0.7248785813616578</v>
       </c>
       <c r="N3">
-        <v>1.819625327823779</v>
+        <v>0.9364346063927087</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.378553937136871</v>
+        <v>2.410693747274934</v>
       </c>
       <c r="C4">
-        <v>0.5422353028170619</v>
+        <v>0.9376654355629341</v>
       </c>
       <c r="D4">
-        <v>0.0555090124632116</v>
+        <v>0.01248115411590334</v>
       </c>
       <c r="E4">
-        <v>0.09246258146404607</v>
+        <v>0.03495296441427698</v>
       </c>
       <c r="F4">
-        <v>2.667926424497182</v>
+        <v>1.865730764069127</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.257205323389073</v>
+        <v>0.8010665120326479</v>
       </c>
       <c r="J4">
-        <v>0.148358173165196</v>
+        <v>0.06803911908365379</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5335595744811243</v>
+        <v>0.6608910025499952</v>
       </c>
       <c r="N4">
-        <v>1.832670823019765</v>
+        <v>0.9699161336160849</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.353455744877579</v>
+        <v>2.30986772215789</v>
       </c>
       <c r="C5">
-        <v>0.5327527696101981</v>
+        <v>0.8986557099937897</v>
       </c>
       <c r="D5">
-        <v>0.05547234174437143</v>
+        <v>0.01227184093749756</v>
       </c>
       <c r="E5">
-        <v>0.09250588172473684</v>
+        <v>0.03461138926034302</v>
       </c>
       <c r="F5">
-        <v>2.662933025250567</v>
+        <v>1.825203266126891</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.256700839107523</v>
+        <v>0.7893445869595368</v>
       </c>
       <c r="J5">
-        <v>0.1484599138985701</v>
+        <v>0.06743846705382239</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5276930664225716</v>
+        <v>0.6350662314057942</v>
       </c>
       <c r="N5">
-        <v>1.838153240818659</v>
+        <v>0.9839596412383855</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.349300739893238</v>
+        <v>2.293170707921604</v>
       </c>
       <c r="C6">
-        <v>0.5311835864494867</v>
+        <v>0.8922001472469105</v>
       </c>
       <c r="D6">
-        <v>0.05546631106277644</v>
+        <v>0.01223719937718393</v>
       </c>
       <c r="E6">
-        <v>0.09251351140556352</v>
+        <v>0.03455528451547174</v>
       </c>
       <c r="F6">
-        <v>2.662128433457397</v>
+        <v>1.818537754472146</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.25662840959648</v>
+        <v>0.7874277690121332</v>
       </c>
       <c r="J6">
-        <v>0.1484777596385136</v>
+        <v>0.0673405322898617</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5267238951603304</v>
+        <v>0.6307922156038259</v>
       </c>
       <c r="N6">
-        <v>1.839073624241195</v>
+        <v>0.98631516412458</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.378214613528598</v>
+        <v>2.409330874912598</v>
       </c>
       <c r="C7">
-        <v>0.5421070566613366</v>
+        <v>0.9371378280933698</v>
       </c>
       <c r="D7">
-        <v>0.05550851399297585</v>
+        <v>0.01247832332124155</v>
       </c>
       <c r="E7">
-        <v>0.092463135956244</v>
+        <v>0.03494831630436401</v>
       </c>
       <c r="F7">
-        <v>2.667857434524834</v>
+        <v>1.865179836673221</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.25719775911486</v>
+        <v>0.8009064141196092</v>
       </c>
       <c r="J7">
-        <v>0.1483594814624141</v>
+        <v>0.06803089626051317</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5334801241829936</v>
+        <v>0.6605417500018262</v>
       </c>
       <c r="N7">
-        <v>1.832744088081434</v>
+        <v>0.9701039353767307</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.507633062785544</v>
+        <v>2.929326206128223</v>
       </c>
       <c r="C8">
-        <v>0.5910974175980073</v>
+        <v>1.139033887632593</v>
       </c>
       <c r="D8">
-        <v>0.05570320845519738</v>
+        <v>0.01356168910459132</v>
       </c>
       <c r="E8">
-        <v>0.09230467650262497</v>
+        <v>0.03677609763199285</v>
       </c>
       <c r="F8">
-        <v>2.696718020902466</v>
+        <v>2.081050171491583</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.261363300069327</v>
+        <v>0.8649985266740501</v>
       </c>
       <c r="J8">
-        <v>0.1479759872093638</v>
+        <v>0.07135454677526809</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5640162006656695</v>
+        <v>0.7941143376956674</v>
       </c>
       <c r="N8">
-        <v>1.806273922297898</v>
+        <v>0.9021248457796673</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.768070890135675</v>
+        <v>3.984891383396132</v>
       </c>
       <c r="C9">
-        <v>0.6900508364707321</v>
+        <v>1.552229752372568</v>
       </c>
       <c r="D9">
-        <v>0.05611512934375007</v>
+        <v>0.01578579959240756</v>
       </c>
       <c r="E9">
-        <v>0.09222271856964426</v>
+        <v>0.04074176179573996</v>
       </c>
       <c r="F9">
-        <v>2.766284719212024</v>
+        <v>2.548454252469142</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.275522736755079</v>
+        <v>1.010618395171463</v>
       </c>
       <c r="J9">
-        <v>0.1477226294621801</v>
+        <v>0.07903139995611497</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6265138492158826</v>
+        <v>1.066835721711989</v>
       </c>
       <c r="N9">
-        <v>1.759639107451669</v>
+        <v>0.7829562277254496</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.963570924416729</v>
+        <v>4.792356334040221</v>
       </c>
       <c r="C10">
-        <v>0.7645703173390643</v>
+        <v>1.87110430671072</v>
       </c>
       <c r="D10">
-        <v>0.05643595357435061</v>
+        <v>0.01751551009860641</v>
       </c>
       <c r="E10">
-        <v>0.09230151436985956</v>
+        <v>0.04393738656254342</v>
       </c>
       <c r="F10">
-        <v>2.825413979438792</v>
+        <v>2.927389678529806</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.289627965807</v>
+        <v>1.133398651724619</v>
       </c>
       <c r="J10">
-        <v>0.1478417792980053</v>
+        <v>0.08555461940594711</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.674052650673346</v>
+        <v>1.276549944048995</v>
       </c>
       <c r="N10">
-        <v>1.728611143821006</v>
+        <v>0.7054846014101059</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.05343551081819</v>
+        <v>5.169233825787614</v>
       </c>
       <c r="C11">
-        <v>0.7988797615579983</v>
+        <v>2.02072876233666</v>
       </c>
       <c r="D11">
-        <v>0.05658582421222214</v>
+        <v>0.01833277793882537</v>
       </c>
       <c r="E11">
-        <v>0.09236745904887833</v>
+        <v>0.04546512829957194</v>
       </c>
       <c r="F11">
-        <v>2.854079502260106</v>
+        <v>3.109732262487057</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.296859878005165</v>
+        <v>1.193625217985428</v>
       </c>
       <c r="J11">
-        <v>0.1479625768201345</v>
+        <v>0.08875937825996516</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6960376782652844</v>
+        <v>1.374699525417441</v>
       </c>
       <c r="N11">
-        <v>1.715202477115533</v>
+        <v>0.6728101840165266</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.087600248395177</v>
+        <v>5.313572526972166</v>
       </c>
       <c r="C12">
-        <v>0.8119317994283506</v>
+        <v>2.078164204573113</v>
       </c>
       <c r="D12">
-        <v>0.05664313792879483</v>
+        <v>0.01864760462936488</v>
       </c>
       <c r="E12">
-        <v>0.0923967506713268</v>
+        <v>0.04605550831972316</v>
       </c>
       <c r="F12">
-        <v>2.865190407876781</v>
+        <v>3.180429775907839</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.299716532482833</v>
+        <v>1.217151400885683</v>
       </c>
       <c r="J12">
-        <v>0.1480179187247472</v>
+        <v>0.09001144047761045</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7044149169224596</v>
+        <v>1.412330488220874</v>
       </c>
       <c r="N12">
-        <v>1.710226916638618</v>
+        <v>0.6608437513103524</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.080236239506633</v>
+        <v>5.282410076142412</v>
       </c>
       <c r="C13">
-        <v>0.8091181369488822</v>
+        <v>2.065757868075252</v>
       </c>
       <c r="D13">
-        <v>0.05663076949965173</v>
+        <v>0.01857954602173173</v>
       </c>
       <c r="E13">
-        <v>0.09239025020522718</v>
+        <v>0.04592781107605504</v>
       </c>
       <c r="F13">
-        <v>2.862786066338913</v>
+        <v>3.16512673996661</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.29909603545957</v>
+        <v>1.212051028268931</v>
       </c>
       <c r="J13">
-        <v>0.1480055725994944</v>
+        <v>0.08973999888515749</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.702608411625917</v>
+        <v>1.404204167087912</v>
       </c>
       <c r="N13">
-        <v>1.711293948037373</v>
+        <v>0.6634021987111964</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.056243552686396</v>
+        <v>5.181074575935327</v>
       </c>
       <c r="C14">
-        <v>0.7999523574407021</v>
+        <v>2.025437718146236</v>
       </c>
       <c r="D14">
-        <v>0.05659052822307942</v>
+        <v>0.01835856561878835</v>
       </c>
       <c r="E14">
-        <v>0.09236978236105031</v>
+        <v>0.04551345407986851</v>
       </c>
       <c r="F14">
-        <v>2.854988464500821</v>
+        <v>3.115514213996477</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.297092525230795</v>
+        <v>1.195545743084693</v>
       </c>
       <c r="J14">
-        <v>0.1479669373343455</v>
+        <v>0.08886158771060337</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6967258350692163</v>
+        <v>1.377785725883953</v>
       </c>
       <c r="N14">
-        <v>1.714791087578988</v>
+        <v>0.671817315495808</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.041564950718737</v>
+        <v>5.119223031094577</v>
       </c>
       <c r="C15">
-        <v>0.7943458645094097</v>
+        <v>2.000845328888317</v>
       </c>
       <c r="D15">
-        <v>0.05656595223130445</v>
+        <v>0.01822393657698029</v>
       </c>
       <c r="E15">
-        <v>0.09235780753231815</v>
+        <v>0.04526123125836179</v>
       </c>
       <c r="F15">
-        <v>2.850245585762849</v>
+        <v>3.085346671781679</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.295880720710926</v>
+        <v>1.185532410216595</v>
       </c>
       <c r="J15">
-        <v>0.1479445227964931</v>
+        <v>0.08832868738239341</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6931293664170539</v>
+        <v>1.361666264066045</v>
       </c>
       <c r="N15">
-        <v>1.716946485492159</v>
+        <v>0.6770259751798378</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.957716886246089</v>
+        <v>4.767939365495181</v>
       </c>
       <c r="C16">
-        <v>0.7623364372834089</v>
+        <v>1.86142771467081</v>
       </c>
       <c r="D16">
-        <v>0.05642623786443757</v>
+        <v>0.01746279100835402</v>
       </c>
       <c r="E16">
-        <v>0.09229780968311552</v>
+        <v>0.04383913487779978</v>
       </c>
       <c r="F16">
-        <v>2.823576332608809</v>
+        <v>2.915691427692508</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.289171821980233</v>
+        <v>1.129558194329746</v>
       </c>
       <c r="J16">
-        <v>0.1478352268465315</v>
+        <v>0.08535031643437208</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6726231351886724</v>
+        <v>1.270196613066474</v>
       </c>
       <c r="N16">
-        <v>1.729501680687214</v>
+        <v>0.7076747056390289</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.906517977226486</v>
+        <v>4.555053165388415</v>
       </c>
       <c r="C17">
-        <v>0.7428053174048728</v>
+        <v>1.777149012840027</v>
       </c>
       <c r="D17">
-        <v>0.05634153052925939</v>
+        <v>0.01700428272346599</v>
       </c>
       <c r="E17">
-        <v>0.0922687061254841</v>
+        <v>0.04298650144015603</v>
       </c>
       <c r="F17">
-        <v>2.807669504100289</v>
+        <v>2.814309797083638</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.285265558106985</v>
+        <v>1.096400812498274</v>
       </c>
       <c r="J17">
-        <v>0.1477852495938805</v>
+        <v>0.08358689437368838</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6601354893806928</v>
+        <v>1.214833089998308</v>
       </c>
       <c r="N17">
-        <v>1.737385071684017</v>
+        <v>0.7271594468456826</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.877157244714169</v>
+        <v>4.433489543827818</v>
       </c>
       <c r="C18">
-        <v>0.7316100901894629</v>
+        <v>1.729095956046251</v>
       </c>
       <c r="D18">
-        <v>0.0562931788501011</v>
+        <v>0.01674335637841473</v>
       </c>
       <c r="E18">
-        <v>0.09225480018499788</v>
+        <v>0.0425029768488816</v>
       </c>
       <c r="F18">
-        <v>2.798686559564317</v>
+        <v>2.756921036909148</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.283095474487169</v>
+        <v>1.077735089510441</v>
       </c>
       <c r="J18">
-        <v>0.1477627709344986</v>
+        <v>0.08259466521572989</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6529867342390503</v>
+        <v>1.183243657328575</v>
       </c>
       <c r="N18">
-        <v>1.741985823284985</v>
+        <v>0.7386057316210923</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.86723120349842</v>
+        <v>4.392474768480895</v>
       </c>
       <c r="C19">
-        <v>0.727826176107385</v>
+        <v>1.712895093021643</v>
       </c>
       <c r="D19">
-        <v>0.05627687142048998</v>
+        <v>0.01665546438663412</v>
       </c>
       <c r="E19">
-        <v>0.09225057882057719</v>
+        <v>0.04234041224922613</v>
       </c>
       <c r="F19">
-        <v>2.795673588156632</v>
+        <v>2.737642649769867</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.282373868761525</v>
+        <v>1.071482271967596</v>
       </c>
       <c r="J19">
-        <v>0.1477562357353293</v>
+        <v>0.08226237575962614</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6505720860364619</v>
+        <v>1.172589736443697</v>
       </c>
       <c r="N19">
-        <v>1.743554954474554</v>
+        <v>0.7425212670362953</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.911959121728103</v>
+        <v>4.577622189954752</v>
       </c>
       <c r="C20">
-        <v>0.7448804421614454</v>
+        <v>1.786076155436717</v>
       </c>
       <c r="D20">
-        <v>0.05635050952968079</v>
+        <v>0.01705279588052022</v>
       </c>
       <c r="E20">
-        <v>0.09227151103922537</v>
+        <v>0.04307654459940835</v>
       </c>
       <c r="F20">
-        <v>2.809345595062581</v>
+        <v>2.825005018360173</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.285673442793993</v>
+        <v>1.099887882419125</v>
       </c>
       <c r="J20">
-        <v>0.1477899209960398</v>
+        <v>0.08377230232062516</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6614613193624166</v>
+        <v>1.22069985543888</v>
       </c>
       <c r="N20">
-        <v>1.736538992232262</v>
+        <v>0.7250602540471434</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.063287114089917</v>
+        <v>5.210793058276522</v>
       </c>
       <c r="C21">
-        <v>0.8026429396424533</v>
+        <v>2.037258632732858</v>
       </c>
       <c r="D21">
-        <v>0.05660233286415384</v>
+        <v>0.01842331925822549</v>
       </c>
       <c r="E21">
-        <v>0.0923756770916011</v>
+        <v>0.04563482853151157</v>
       </c>
       <c r="F21">
-        <v>2.857271850155485</v>
+        <v>3.130040014887442</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.297677793196911</v>
+        <v>1.200373427743884</v>
       </c>
       <c r="J21">
-        <v>0.1479780247679514</v>
+        <v>0.08911851609496324</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6984522770304267</v>
+        <v>1.385532281927411</v>
       </c>
       <c r="N21">
-        <v>1.713761120573537</v>
+        <v>0.6693342310705148</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.162975963052133</v>
+        <v>5.634210140980315</v>
       </c>
       <c r="C22">
-        <v>0.8407429971727538</v>
+        <v>2.206011391627328</v>
       </c>
       <c r="D22">
-        <v>0.05677018220933583</v>
+        <v>0.01935077224345072</v>
       </c>
       <c r="E22">
-        <v>0.0924689309795923</v>
+        <v>0.04737660959059475</v>
       </c>
       <c r="F22">
-        <v>2.890086810185664</v>
+        <v>3.339128081099886</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.306212023885024</v>
+        <v>1.270292949307176</v>
       </c>
       <c r="J22">
-        <v>0.1481569196576089</v>
+        <v>0.09283938639551081</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.722931168545685</v>
+        <v>1.496002234239086</v>
       </c>
       <c r="N22">
-        <v>1.699469285952489</v>
+        <v>0.6353056636876033</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.109697727189314</v>
+        <v>5.407254380626171</v>
       </c>
       <c r="C23">
-        <v>0.8203760790846673</v>
+        <v>2.115480953180906</v>
       </c>
       <c r="D23">
-        <v>0.05668029992549783</v>
+        <v>0.0188525016365233</v>
       </c>
       <c r="E23">
-        <v>0.09241685883084649</v>
+        <v>0.04644015940402646</v>
       </c>
       <c r="F23">
-        <v>2.872435708274963</v>
+        <v>3.226564337298669</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.301593849354006</v>
+        <v>1.23255368171769</v>
       </c>
       <c r="J23">
-        <v>0.1480563124140701</v>
+        <v>0.09083113589104386</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7098384803821034</v>
+        <v>1.436766280422262</v>
       </c>
       <c r="N23">
-        <v>1.707042522424743</v>
+        <v>0.6532347543870003</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.909498949260865</v>
+        <v>4.567416174877621</v>
       </c>
       <c r="C24">
-        <v>0.743942174057338</v>
+        <v>1.782038957485156</v>
       </c>
       <c r="D24">
-        <v>0.05634644903996744</v>
+        <v>0.01703085481751465</v>
       </c>
       <c r="E24">
-        <v>0.092270234134471</v>
+        <v>0.04303581541425316</v>
       </c>
       <c r="F24">
-        <v>2.808587329555849</v>
+        <v>2.820166931131212</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.285488802465281</v>
+        <v>1.098310148566952</v>
       </c>
       <c r="J24">
-        <v>0.1477877895770376</v>
+        <v>0.08368841247546044</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6608618164668059</v>
+        <v>1.218046748930988</v>
       </c>
       <c r="N24">
-        <v>1.736921291472257</v>
+        <v>0.7260085410993966</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.696893226698592</v>
+        <v>3.69452315390015</v>
       </c>
       <c r="C25">
-        <v>0.6629664119413974</v>
+        <v>1.438141418887767</v>
       </c>
       <c r="D25">
-        <v>0.0560004882983538</v>
+        <v>0.01517017683307209</v>
       </c>
       <c r="E25">
-        <v>0.0922204464136307</v>
+        <v>0.03962333062155921</v>
       </c>
       <c r="F25">
-        <v>2.74606504783317</v>
+        <v>2.416455938312509</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.271045733094724</v>
+        <v>0.9687396773922927</v>
       </c>
       <c r="J25">
-        <v>0.1477376524003198</v>
+        <v>0.07681350442353008</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6093237394562863</v>
+        <v>0.9916357801926026</v>
       </c>
       <c r="N25">
-        <v>1.771688500391356</v>
+        <v>0.8135405307367876</v>
       </c>
       <c r="O25">
         <v>0</v>
